--- a/Curation/Media/KBASE_MEDIAS/HMBoligo.xlsx
+++ b/Curation/Media/KBASE_MEDIAS/HMBoligo.xlsx
@@ -714,7 +714,7 @@
         <v>-100</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -734,7 +734,7 @@
         <v>-100</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -754,7 +754,7 @@
         <v>-100</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>0.001</v>
@@ -774,7 +774,7 @@
         <v>-100</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0.001</v>
@@ -794,7 +794,7 @@
         <v>-100</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>0.001</v>
@@ -814,7 +814,7 @@
         <v>-100</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>0.001</v>
@@ -834,7 +834,7 @@
         <v>-100</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>0.001</v>
@@ -854,7 +854,7 @@
         <v>-100</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>0.001</v>
@@ -894,7 +894,7 @@
         <v>-100</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>0.001</v>
@@ -934,7 +934,7 @@
         <v>-100</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>0.001</v>
@@ -954,7 +954,7 @@
         <v>-100</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>0.001</v>
@@ -974,7 +974,7 @@
         <v>-100</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>0.001</v>
@@ -994,7 +994,7 @@
         <v>-100</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>0.001</v>
@@ -1054,7 +1054,7 @@
         <v>-100</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>0.001</v>
@@ -1074,7 +1074,7 @@
         <v>-100</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>0.001</v>
@@ -1174,7 +1174,7 @@
         <v>-100</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>0.001</v>
@@ -1194,7 +1194,7 @@
         <v>-100</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>0.001</v>
@@ -1214,7 +1214,7 @@
         <v>-100</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F27">
         <v>0.001</v>
@@ -1254,7 +1254,7 @@
         <v>-100</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F29">
         <v>0.001</v>
@@ -1314,7 +1314,7 @@
         <v>-100</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F32">
         <v>0.001</v>
